--- a/sputnik/personal/cel/cel151.xlsx
+++ b/sputnik/personal/cel/cel151.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,6 +203,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,7 +514,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,9 +590,15 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1000</v>
+      </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel151.xlsx
+++ b/sputnik/personal/cel/cel151.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,13 +40,25 @@
   </si>
   <si>
     <t>Начислен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплачен целевой взнос на освещение центральной дороги </t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,10 +308,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,7 +342,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -507,17 +517,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -526,8 +536,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -541,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="15">
         <v>43466</v>
       </c>
@@ -553,7 +563,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="15">
         <v>43466</v>
       </c>
@@ -565,7 +575,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="16">
         <v>43586</v>
       </c>
@@ -577,7 +587,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="17">
         <v>43586</v>
       </c>
@@ -589,7 +599,7 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" s="18">
         <v>43952</v>
       </c>
@@ -601,41 +611,71 @@
       </c>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="18">
+        <v>44182</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="18">
+        <v>44182</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="18">
+        <v>44182</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="18">
+        <v>44182</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
@@ -647,12 +687,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -661,12 +701,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/cel/cel151.xlsx
+++ b/sputnik/personal/cel/cel151.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -57,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,9 +308,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +343,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -517,17 +519,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -536,8 +538,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -551,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>43466</v>
       </c>
@@ -563,7 +565,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>43466</v>
       </c>
@@ -575,7 +577,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43586</v>
       </c>
@@ -587,7 +589,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>43586</v>
       </c>
@@ -599,7 +601,7 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>43952</v>
       </c>
@@ -611,7 +613,7 @@
       </c>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>44182</v>
       </c>
@@ -623,7 +625,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>44182</v>
       </c>
@@ -635,7 +637,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>44182</v>
       </c>
@@ -647,7 +649,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>44182</v>
       </c>
@@ -659,23 +661,33 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>44257</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
@@ -687,12 +699,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -701,12 +713,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/cel/cel151.xlsx
+++ b/sputnik/personal/cel/cel151.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -216,6 +222,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,7 +533,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -674,13 +681,27 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="18">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+      <c r="A14" s="18">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13">
+        <v>170</v>
+      </c>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
